--- a/Results.xlsx
+++ b/Results.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="218">
   <si>
     <t>GCN</t>
   </si>
@@ -70,55 +70,559 @@
     <t>Origin</t>
   </si>
   <si>
+    <t>88.93\pm1.13</t>
+  </si>
+  <si>
+    <t>88.47\pm1.47</t>
+  </si>
+  <si>
+    <t>78.06\pm1.14</t>
+  </si>
+  <si>
+    <t>74.96\pm0.26</t>
+  </si>
+  <si>
+    <t>79.68\pm0.84</t>
+  </si>
+  <si>
+    <t>77.84\pm0.31</t>
+  </si>
+  <si>
+    <t>84.18\pm0.61</t>
+  </si>
+  <si>
+    <t>43.09\pm0.32</t>
+  </si>
+  <si>
+    <t>76.31\pm0.99</t>
+  </si>
+  <si>
+    <t>54.94\pm0.53</t>
+  </si>
+  <si>
+    <t>52.63\pm0.66</t>
+  </si>
+  <si>
+    <t>32.27\pm1.46</t>
+  </si>
+  <si>
     <t>Classic-Aug</t>
   </si>
   <si>
     <t>GAugO</t>
   </si>
   <si>
+    <t>88.86\pm0.79</t>
+  </si>
+  <si>
+    <t>88.03\pm1.01</t>
+  </si>
+  <si>
+    <t>78.08\pm0.71</t>
+  </si>
+  <si>
+    <t>77.15\pm0.32</t>
+  </si>
+  <si>
+    <t>79.89\pm0.87</t>
+  </si>
+  <si>
+    <t>77.65\pm0.65</t>
+  </si>
+  <si>
+    <t>84.56\pm1.48</t>
+  </si>
+  <si>
+    <t>44.72\pm0.64</t>
+  </si>
+  <si>
+    <t>76.8\pm1.43</t>
+  </si>
+  <si>
+    <t>53.01\pm0.25</t>
+  </si>
+  <si>
+    <t>51.79\pm0.64</t>
+  </si>
+  <si>
+    <t>33.64\pm0.71</t>
+  </si>
+  <si>
     <t>LLM-Aug</t>
   </si>
   <si>
     <t>GraphEdit</t>
   </si>
   <si>
+    <t>90.95\pm0.88</t>
+  </si>
+  <si>
+    <t>89.71\pm0.61</t>
+  </si>
+  <si>
+    <t>81.85\pm0.91</t>
+  </si>
+  <si>
+    <t>80.83\pm1.14</t>
+  </si>
+  <si>
+    <t>81.97\pm1.07</t>
+  </si>
+  <si>
+    <t>80.72\pm1.24</t>
+  </si>
+  <si>
+    <t>87.64\pm0.59</t>
+  </si>
+  <si>
+    <t>45.69\pm1.34</t>
+  </si>
+  <si>
+    <t>77.95\pm0.85</t>
+  </si>
+  <si>
+    <t>57.82\pm0.34</t>
+  </si>
+  <si>
+    <t>54.31\pm0.74</t>
+  </si>
+  <si>
+    <t>35.68\pm1.43</t>
+  </si>
+  <si>
     <t>LLM4RGNN</t>
   </si>
   <si>
+    <t>91.23\pm0.62</t>
+  </si>
+  <si>
+    <t>88.84\pm1.06</t>
+  </si>
+  <si>
+    <t>80.94\pm1.33</t>
+  </si>
+  <si>
+    <t>76.59\pm1.14</t>
+  </si>
+  <si>
+    <t>83.56\pm1.36</t>
+  </si>
+  <si>
+    <t>81.64\pm1.48</t>
+  </si>
+  <si>
+    <t>88.91\pm0.66</t>
+  </si>
+  <si>
+    <t>48.62\pm0.39</t>
+  </si>
+  <si>
+    <t>79.34\pm1.13</t>
+  </si>
+  <si>
+    <t>59.13\pm0.42</t>
+  </si>
+  <si>
+    <t>55.74\pm1.42</t>
+  </si>
+  <si>
+    <t>36.72\pm0.75</t>
+  </si>
+  <si>
     <t>Classic-Syn</t>
   </si>
   <si>
     <t>GraphSmote</t>
   </si>
   <si>
+    <t>88.71\pm1.36</t>
+  </si>
+  <si>
+    <t>87.42\pm1.06</t>
+  </si>
+  <si>
+    <t>78.12\pm0.45</t>
+  </si>
+  <si>
+    <t>74.58\pm1.38</t>
+  </si>
+  <si>
+    <t>80.74\pm1.48</t>
+  </si>
+  <si>
+    <t>78.61\pm1.43</t>
+  </si>
+  <si>
+    <t>84.93\pm0.46</t>
+  </si>
+  <si>
+    <t>43.89\pm0.33</t>
+  </si>
+  <si>
+    <t>76.20\pm0.43</t>
+  </si>
+  <si>
+    <t>55.52\pm0.38</t>
+  </si>
+  <si>
+    <t>53.06\pm0.94</t>
+  </si>
+  <si>
+    <t>33.15\pm0.56</t>
+  </si>
+  <si>
     <t>G-Mixup</t>
   </si>
   <si>
+    <t>87.43\pm1.07</t>
+  </si>
+  <si>
+    <t>86.95\pm0.65</t>
+  </si>
+  <si>
+    <t>78.24\pm0.94</t>
+  </si>
+  <si>
+    <t>76.79\pm1.08</t>
+  </si>
+  <si>
+    <t>79.73\pm0.38</t>
+  </si>
+  <si>
+    <t>77.96\pm0.83</t>
+  </si>
+  <si>
+    <t>84.56\pm0.63</t>
+  </si>
+  <si>
+    <t>43.62\pm0.55</t>
+  </si>
+  <si>
+    <t>76.55\pm0.38</t>
+  </si>
+  <si>
+    <t>56.46\pm0.33</t>
+  </si>
+  <si>
+    <t>52.98\pm0.64</t>
+  </si>
+  <si>
+    <t>32.97\pm0.27</t>
+  </si>
+  <si>
     <t>IntraMix</t>
   </si>
   <si>
+    <t>80.94\pm0.63</t>
+  </si>
+  <si>
+    <t>82.75\pm0.67</t>
+  </si>
+  <si>
+    <t>71.26\pm0.78</t>
+  </si>
+  <si>
+    <t>70.68\pm0.52</t>
+  </si>
+  <si>
+    <t>73.69\pm1.01</t>
+  </si>
+  <si>
+    <t>74.53\pm0.39</t>
+  </si>
+  <si>
+    <t>82.43\pm1.45</t>
+  </si>
+  <si>
+    <t>42.69\pm0.55</t>
+  </si>
+  <si>
+    <t>72.345\pm1.08</t>
+  </si>
+  <si>
+    <t>53.93\pm0.84</t>
+  </si>
+  <si>
+    <t>45.19\pm0.89</t>
+  </si>
+  <si>
+    <t>30.07\pm0.66</t>
+  </si>
+  <si>
     <t>GraphAdasyn</t>
   </si>
   <si>
+    <t>89.23\pm0.31</t>
+  </si>
+  <si>
+    <t>88.71\pm0.54</t>
+  </si>
+  <si>
+    <t>78.9\pm0.99</t>
+  </si>
+  <si>
+    <t>78.42\pm1.42</t>
+  </si>
+  <si>
+    <t>80.79\pm1.19</t>
+  </si>
+  <si>
+    <t>78.89\pm0.73</t>
+  </si>
+  <si>
+    <t>84.63\pm1.46</t>
+  </si>
+  <si>
+    <t>46.05\pm0.75</t>
+  </si>
+  <si>
+    <t>77.53\pm0.65</t>
+  </si>
+  <si>
+    <t>56.97\pm1.12</t>
+  </si>
+  <si>
+    <t>53.62\pm0.47</t>
+  </si>
+  <si>
+    <t>33.03\pm0.63</t>
+  </si>
+  <si>
     <t>FG-SMOTE</t>
   </si>
   <si>
+    <t>88.94\pm1.46</t>
+  </si>
+  <si>
+    <t>87.56\pm0.95</t>
+  </si>
+  <si>
+    <t>78.69\pm0.81</t>
+  </si>
+  <si>
+    <t>74.73\pm1.38</t>
+  </si>
+  <si>
+    <t>80.96\pm0.78</t>
+  </si>
+  <si>
+    <t>78.97\pm1.02</t>
+  </si>
+  <si>
+    <t>84.99\pm1.38</t>
+  </si>
+  <si>
+    <t>43.98\pm0.89</t>
+  </si>
+  <si>
+    <t>76.37\pm1.18</t>
+  </si>
+  <si>
+    <t>55.83\pm1.42</t>
+  </si>
+  <si>
+    <t>53.08\pm1.49</t>
+  </si>
+  <si>
+    <t>33.25\pm0.93</t>
+  </si>
+  <si>
     <t>AGMixup</t>
   </si>
   <si>
+    <t>84.71\pm0.42</t>
+  </si>
+  <si>
+    <t>86.59\pm0.35</t>
+  </si>
+  <si>
+    <t>71.69\pm0.89</t>
+  </si>
+  <si>
+    <t>73.21\pm1.09</t>
+  </si>
+  <si>
+    <t>78.83\pm0.89</t>
+  </si>
+  <si>
+    <t>76.57\pm1.09</t>
+  </si>
+  <si>
+    <t>81.78\pm0.89</t>
+  </si>
+  <si>
+    <t>42.86\pm0.34</t>
+  </si>
+  <si>
+    <t>76.76\pm1.06</t>
+  </si>
+  <si>
+    <t>53.73\pm0.53</t>
+  </si>
+  <si>
+    <t>53.64\pm0.99</t>
+  </si>
+  <si>
+    <t>32.57\pm0.78</t>
+  </si>
+  <si>
     <t>LLM-Syn</t>
   </si>
   <si>
     <t>GAG</t>
   </si>
   <si>
+    <t>90.98\pm1.19</t>
+  </si>
+  <si>
+    <t>89.34\pm0.43</t>
+  </si>
+  <si>
+    <t>82.78\pm0.89</t>
+  </si>
+  <si>
+    <t>79.97\pm1.45</t>
+  </si>
+  <si>
+    <t>84.91\pm1.34</t>
+  </si>
+  <si>
+    <t>83.23\pm0.65</t>
+  </si>
+  <si>
+    <t>88.89\pm0.47</t>
+  </si>
+  <si>
+    <t>49.76\pm0.84</t>
+  </si>
+  <si>
+    <t>79.85\pm0.51</t>
+  </si>
+  <si>
+    <t>59.37\pm0.98</t>
+  </si>
+  <si>
+    <t>56.67\pm0.75</t>
+  </si>
+  <si>
+    <t>38.02\pm0.47</t>
+  </si>
+  <si>
     <t>Mixed-LLM</t>
   </si>
   <si>
+    <t>89.93\pm0.47</t>
+  </si>
+  <si>
+    <t>89.27\pm0.41</t>
+  </si>
+  <si>
+    <t>83.49\pm0.92</t>
+  </si>
+  <si>
+    <t>81.27\pm0.77</t>
+  </si>
+  <si>
+    <t>84.92\pm0.94</t>
+  </si>
+  <si>
+    <t>83.42\pm0.81</t>
+  </si>
+  <si>
+    <t>89.23\pm1.25</t>
+  </si>
+  <si>
+    <t>55.75\pm0.77</t>
+  </si>
+  <si>
+    <t>81.42\pm1.46</t>
+  </si>
+  <si>
+    <t>61.17\pm0.92</t>
+  </si>
+  <si>
+    <t>59.97\pm0.65</t>
+  </si>
+  <si>
+    <t>39.64\pm0.74</t>
+  </si>
+  <si>
     <t>Synthesis-LLM</t>
   </si>
   <si>
+    <t>89.75\pm1.27</t>
+  </si>
+  <si>
+    <t>89.14\pm1.01</t>
+  </si>
+  <si>
+    <t>84.52\pm1.02</t>
+  </si>
+  <si>
+    <t>82.74\pm1.05</t>
+  </si>
+  <si>
+    <t>84.79\pm0.37</t>
+  </si>
+  <si>
+    <t>83.17\pm0.52</t>
+  </si>
+  <si>
+    <t>89.35\pm1.27</t>
+  </si>
+  <si>
+    <t>53.37\pm1.25</t>
+  </si>
+  <si>
+    <t>80.95\pm1.15</t>
+  </si>
+  <si>
+    <t>62.28\pm0.84</t>
+  </si>
+  <si>
+    <t>60.89\pm1.01</t>
+  </si>
+  <si>
+    <t>40.08\pm0.93</t>
+  </si>
+  <si>
     <t>GraphMaster</t>
+  </si>
+  <si>
+    <t>92.58\pm1.03</t>
+  </si>
+  <si>
+    <t>91.34\pm0.96</t>
+  </si>
+  <si>
+    <t>87.52\pm0.93</t>
+  </si>
+  <si>
+    <t>86.43\pm1.07</t>
+  </si>
+  <si>
+    <t>86.59\pm0.75</t>
+  </si>
+  <si>
+    <t>85.37\pm0.87</t>
+  </si>
+  <si>
+    <t>91.25\pm1.33</t>
+  </si>
+  <si>
+    <t>62.14\pm1.39</t>
+  </si>
+  <si>
+    <t>86.69\pm1.32</t>
+  </si>
+  <si>
+    <t>65.52\pm1.45</t>
+  </si>
+  <si>
+    <t>67.73\pm1.37</t>
+  </si>
+  <si>
+    <t>46.68\pm1.28</t>
   </si>
   <si>
     <t>JKNet</t>
@@ -389,7 +893,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="8" tint="0.8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -886,6 +1390,9 @@
     <xf numFmtId="177" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -893,9 +1400,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1220,8 +1724,8 @@
   <sheetPr/>
   <dimension ref="J9:W108"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" topLeftCell="G19" workbookViewId="0">
-      <selection activeCell="Q37" sqref="Q37"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" topLeftCell="I9" workbookViewId="0">
+      <selection activeCell="S29" sqref="S29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1229,7 +1733,7 @@
     <col min="1" max="9" width="9" style="1"/>
     <col min="10" max="10" width="19.7272727272727" style="1" customWidth="1"/>
     <col min="11" max="11" width="20" style="1" customWidth="1"/>
-    <col min="12" max="23" width="6.63636363636364" style="1" customWidth="1"/>
+    <col min="12" max="23" width="13" style="1" customWidth="1"/>
     <col min="24" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -1330,530 +1834,600 @@
       <c r="K12" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="L12" s="6">
-        <v>88.93</v>
-      </c>
-      <c r="M12" s="6">
-        <v>88.47</v>
-      </c>
-      <c r="N12" s="6">
-        <v>78.06</v>
-      </c>
-      <c r="O12" s="6">
-        <v>74.96</v>
-      </c>
-      <c r="P12" s="6">
-        <v>79.68</v>
-      </c>
-      <c r="Q12" s="6">
-        <v>77.84</v>
-      </c>
-      <c r="R12" s="6">
-        <v>84.18</v>
-      </c>
-      <c r="S12" s="6">
-        <v>43.09</v>
-      </c>
-      <c r="T12" s="6">
-        <v>76.31</v>
-      </c>
-      <c r="U12" s="6">
-        <v>54.94</v>
-      </c>
-      <c r="V12" s="6">
-        <v>52.63</v>
-      </c>
-      <c r="W12" s="6">
-        <v>32.27</v>
+      <c r="L12" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="M12" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="N12" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="O12" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="P12" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q12" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="R12" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="S12" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="T12" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="U12" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="V12" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="W12" s="6" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="10:23">
       <c r="J13" s="3" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="L13" s="6">
-        <v>88.86</v>
-      </c>
-      <c r="M13" s="6">
-        <v>88.03</v>
-      </c>
-      <c r="N13" s="6">
-        <v>78.08</v>
-      </c>
-      <c r="O13" s="6">
-        <v>77.15</v>
-      </c>
-      <c r="P13" s="6">
-        <v>79.89</v>
-      </c>
-      <c r="Q13" s="6">
-        <v>77.65</v>
-      </c>
-      <c r="R13" s="6">
-        <v>84.56</v>
-      </c>
-      <c r="S13" s="6">
-        <v>44.72</v>
-      </c>
-      <c r="T13" s="6">
-        <v>76.8</v>
-      </c>
-      <c r="U13" s="6">
-        <v>53</v>
-      </c>
-      <c r="V13" s="6">
-        <v>51.79</v>
-      </c>
-      <c r="W13" s="6">
-        <v>33.64</v>
+        <v>26</v>
+      </c>
+      <c r="L13" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="M13" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="N13" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="O13" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="P13" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q13" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="R13" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="S13" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="T13" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="U13" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="V13" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="W13" s="6" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="10:23">
       <c r="J14" s="3" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="L14" s="6">
-        <v>90.9</v>
-      </c>
-      <c r="M14" s="6">
-        <v>89.71</v>
-      </c>
-      <c r="N14" s="6">
-        <v>81.85</v>
-      </c>
-      <c r="O14" s="6">
-        <v>80.83</v>
-      </c>
-      <c r="P14" s="6">
-        <v>81.97</v>
-      </c>
-      <c r="Q14" s="6">
-        <v>80.72</v>
-      </c>
-      <c r="R14" s="6">
-        <v>87.64</v>
-      </c>
-      <c r="S14" s="6">
-        <v>45.69</v>
-      </c>
-      <c r="T14" s="6">
-        <v>77.95</v>
-      </c>
-      <c r="U14" s="6">
-        <v>57.82</v>
-      </c>
-      <c r="V14" s="6">
-        <v>54.31</v>
-      </c>
-      <c r="W14" s="6">
-        <v>35.68</v>
+        <v>40</v>
+      </c>
+      <c r="L14" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="M14" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="N14" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="O14" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="P14" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q14" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="R14" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="S14" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="T14" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="U14" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="V14" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="W14" s="6" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="15" spans="10:23">
       <c r="J15" s="3"/>
       <c r="K15" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="L15" s="6">
-        <v>91.9</v>
-      </c>
-      <c r="M15" s="6">
-        <v>88.84</v>
-      </c>
-      <c r="N15" s="6">
-        <v>80.94</v>
-      </c>
-      <c r="O15" s="6">
-        <v>76.59</v>
-      </c>
-      <c r="P15" s="6">
-        <v>83.56</v>
-      </c>
-      <c r="Q15" s="6">
-        <v>81.64</v>
-      </c>
-      <c r="R15" s="6">
-        <v>88.91</v>
-      </c>
-      <c r="S15" s="6">
-        <v>48.62</v>
-      </c>
-      <c r="T15" s="6">
-        <v>79.34</v>
-      </c>
-      <c r="U15" s="6">
-        <v>59.13</v>
-      </c>
-      <c r="V15" s="6">
-        <v>55.74</v>
-      </c>
-      <c r="W15" s="6">
-        <v>36.72</v>
+        <v>53</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="M15" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="N15" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="O15" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="P15" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q15" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="R15" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="S15" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="T15" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="U15" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="V15" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="W15" s="6" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="16" spans="10:23">
       <c r="J16" s="3" t="s">
-        <v>18</v>
+        <v>66</v>
       </c>
       <c r="K16" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="L16" s="6">
-        <v>88.71</v>
-      </c>
-      <c r="M16" s="6">
-        <v>87.42</v>
-      </c>
-      <c r="N16" s="6">
-        <v>78.12</v>
-      </c>
-      <c r="O16" s="6">
-        <v>74.58</v>
-      </c>
-      <c r="P16" s="6">
-        <v>80.74</v>
-      </c>
-      <c r="Q16" s="6">
-        <v>78.61</v>
-      </c>
-      <c r="R16" s="6">
-        <v>84.93</v>
-      </c>
-      <c r="S16" s="6">
-        <v>43.89</v>
-      </c>
-      <c r="T16" s="6">
-        <v>76.2</v>
-      </c>
-      <c r="U16" s="6">
-        <v>55.5</v>
-      </c>
-      <c r="V16" s="6">
-        <v>53.06</v>
-      </c>
-      <c r="W16" s="6">
-        <v>33.15</v>
+        <v>67</v>
+      </c>
+      <c r="L16" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="M16" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="N16" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="O16" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="P16" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q16" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="R16" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="S16" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="T16" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="U16" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="V16" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="W16" s="6" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="17" spans="10:23">
       <c r="J17" s="3"/>
       <c r="K17" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="L17" s="6">
-        <v>87.43</v>
-      </c>
-      <c r="M17" s="6">
-        <v>86.95</v>
-      </c>
-      <c r="N17" s="6">
-        <v>78.24</v>
-      </c>
-      <c r="O17" s="6">
-        <v>76.79</v>
-      </c>
-      <c r="P17" s="6">
-        <v>79.73</v>
-      </c>
-      <c r="Q17" s="6">
-        <v>77.96</v>
-      </c>
-      <c r="R17" s="6">
-        <v>84.56</v>
-      </c>
-      <c r="S17" s="6">
-        <v>43.62</v>
-      </c>
-      <c r="T17" s="6">
-        <v>76.55</v>
-      </c>
-      <c r="U17" s="6">
-        <v>56.4</v>
-      </c>
-      <c r="V17" s="6">
-        <v>52.98</v>
-      </c>
-      <c r="W17" s="6">
-        <v>32.97</v>
+        <v>80</v>
+      </c>
+      <c r="L17" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="M17" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="N17" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="O17" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="P17" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q17" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="R17" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="S17" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="T17" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="U17" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="V17" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="W17" s="6" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="18" spans="10:23">
       <c r="J18" s="3"/>
       <c r="K18" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="L18" s="6">
-        <v>80.94</v>
-      </c>
-      <c r="M18" s="6">
-        <v>82.75</v>
-      </c>
-      <c r="N18" s="6">
-        <v>71.26</v>
-      </c>
-      <c r="O18" s="6">
-        <v>70.68</v>
-      </c>
-      <c r="P18" s="6">
-        <v>73.69</v>
-      </c>
-      <c r="Q18" s="6">
-        <v>74.53</v>
-      </c>
-      <c r="R18" s="6">
-        <v>82.431</v>
-      </c>
-      <c r="S18" s="6">
-        <v>42.69</v>
-      </c>
-      <c r="T18" s="6">
-        <v>72.345</v>
-      </c>
-      <c r="U18" s="6">
-        <v>53.93</v>
-      </c>
-      <c r="V18" s="6">
-        <v>45.194</v>
-      </c>
-      <c r="W18" s="6">
-        <v>30.07</v>
+        <v>93</v>
+      </c>
+      <c r="L18" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="M18" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="N18" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="O18" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="P18" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q18" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="R18" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="S18" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="T18" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="U18" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="V18" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="W18" s="6" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="19" spans="10:23">
       <c r="J19" s="3"/>
       <c r="K19" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="L19" s="6">
-        <v>89.23</v>
-      </c>
-      <c r="M19" s="6">
-        <v>88.71</v>
-      </c>
-      <c r="N19" s="6">
-        <v>78.9</v>
-      </c>
-      <c r="O19" s="6">
-        <v>78.42</v>
-      </c>
-      <c r="P19" s="6">
-        <v>80.79</v>
-      </c>
-      <c r="Q19" s="6">
-        <v>78.89</v>
-      </c>
-      <c r="R19" s="6">
-        <v>84.63</v>
-      </c>
-      <c r="S19" s="6">
-        <v>46.05</v>
-      </c>
-      <c r="T19" s="6">
-        <v>77.53</v>
-      </c>
-      <c r="U19" s="6">
-        <v>56.97</v>
-      </c>
-      <c r="V19" s="6">
-        <v>53.62</v>
-      </c>
-      <c r="W19" s="6">
-        <v>33.03</v>
+        <v>106</v>
+      </c>
+      <c r="L19" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="M19" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="N19" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="O19" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="P19" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q19" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="R19" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="S19" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="T19" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="U19" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="V19" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="W19" s="6" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="20" spans="10:23">
       <c r="J20" s="3"/>
       <c r="K20" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="L20" s="6">
-        <v>88.94</v>
-      </c>
-      <c r="M20" s="6">
-        <v>87.56</v>
-      </c>
-      <c r="N20" s="6">
-        <v>78.69</v>
-      </c>
-      <c r="O20" s="6">
-        <v>74.73</v>
-      </c>
-      <c r="P20" s="6">
-        <v>80.96</v>
-      </c>
-      <c r="Q20" s="6">
-        <v>78.97</v>
-      </c>
-      <c r="R20" s="6">
-        <v>84.99</v>
-      </c>
-      <c r="S20" s="6">
-        <v>43.98</v>
-      </c>
-      <c r="T20" s="6">
-        <v>76.37</v>
-      </c>
-      <c r="U20" s="6">
-        <v>55.83</v>
-      </c>
-      <c r="V20" s="6">
-        <v>53.08</v>
-      </c>
-      <c r="W20" s="6">
-        <v>33.25</v>
+        <v>119</v>
+      </c>
+      <c r="L20" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="M20" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="N20" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="O20" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="P20" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q20" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="R20" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="S20" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="T20" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="U20" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="V20" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="W20" s="6" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="21" spans="10:23">
       <c r="J21" s="3"/>
       <c r="K21" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="L21" s="6">
-        <v>84.71</v>
-      </c>
-      <c r="M21" s="6">
-        <v>86.59</v>
-      </c>
-      <c r="N21" s="6">
-        <v>71.69</v>
-      </c>
-      <c r="O21" s="6">
-        <v>73.21</v>
-      </c>
-      <c r="P21" s="6">
-        <v>78.83</v>
-      </c>
-      <c r="Q21" s="6">
-        <v>76.57</v>
-      </c>
-      <c r="R21" s="6">
-        <v>81.78</v>
-      </c>
-      <c r="S21" s="6">
-        <v>42.86</v>
-      </c>
-      <c r="T21" s="6">
-        <v>76.76</v>
-      </c>
-      <c r="U21" s="6">
-        <v>53.73</v>
-      </c>
-      <c r="V21" s="6">
-        <v>53.64</v>
-      </c>
-      <c r="W21" s="6">
-        <v>32.57</v>
+        <v>132</v>
+      </c>
+      <c r="L21" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="M21" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="N21" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="O21" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="P21" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q21" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="R21" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="S21" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="T21" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="U21" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="V21" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="W21" s="6" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="22" spans="10:23">
       <c r="J22" s="3" t="s">
-        <v>25</v>
+        <v>145</v>
       </c>
       <c r="K22" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="L22" s="6">
-        <v>90.98</v>
-      </c>
-      <c r="M22" s="6">
-        <v>89.34</v>
-      </c>
-      <c r="N22" s="6">
-        <v>82.78</v>
-      </c>
-      <c r="O22" s="6">
-        <v>79.97</v>
-      </c>
-      <c r="P22" s="6">
-        <v>84.98</v>
-      </c>
-      <c r="Q22" s="6">
-        <v>83.23</v>
-      </c>
-      <c r="R22" s="6">
-        <v>88.89</v>
-      </c>
-      <c r="S22" s="6">
-        <v>49.76</v>
-      </c>
-      <c r="T22" s="6">
-        <v>79.85</v>
-      </c>
-      <c r="U22" s="6">
-        <v>59.37</v>
-      </c>
-      <c r="V22" s="6">
-        <v>56.67</v>
-      </c>
-      <c r="W22" s="6">
-        <v>38.02</v>
+        <v>146</v>
+      </c>
+      <c r="L22" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="M22" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="N22" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="O22" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="P22" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q22" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="R22" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="S22" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="T22" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="U22" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="V22" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="W22" s="6" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="23" spans="10:23">
       <c r="J23" s="3"/>
       <c r="K23" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="L23" s="6"/>
-      <c r="M23" s="6"/>
-      <c r="N23" s="6"/>
-      <c r="O23" s="6"/>
-      <c r="P23" s="6"/>
-      <c r="Q23" s="6"/>
-      <c r="R23" s="6"/>
-      <c r="S23" s="6"/>
-      <c r="T23" s="6"/>
-      <c r="U23" s="6"/>
-      <c r="V23" s="6"/>
-      <c r="W23" s="6"/>
+        <v>159</v>
+      </c>
+      <c r="L23" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="M23" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="N23" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="O23" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="Q23" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="R23" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="S23" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="T23" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="U23" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="V23" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="W23" s="6" t="s">
+        <v>171</v>
+      </c>
     </row>
     <row r="24" spans="10:23">
       <c r="J24" s="3"/>
       <c r="K24" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="L24" s="6"/>
-      <c r="M24" s="6"/>
-      <c r="N24" s="6"/>
-      <c r="O24" s="6"/>
-      <c r="P24" s="6"/>
-      <c r="Q24" s="6"/>
-      <c r="R24" s="6"/>
-      <c r="S24" s="6"/>
-      <c r="T24" s="6"/>
-      <c r="U24" s="6"/>
-      <c r="V24" s="6"/>
-      <c r="W24" s="6"/>
+        <v>172</v>
+      </c>
+      <c r="L24" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="M24" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="N24" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="P24" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="Q24" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="R24" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="S24" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="T24" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="U24" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="V24" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="W24" s="7" t="s">
+        <v>184</v>
+      </c>
     </row>
     <row r="25" spans="10:23">
       <c r="J25" s="3"/>
-      <c r="K25" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="L25" s="8">
-        <v>90.59</v>
-      </c>
-      <c r="M25" s="9"/>
-      <c r="N25" s="9"/>
-      <c r="O25" s="9"/>
-      <c r="P25" s="9"/>
-      <c r="Q25" s="9"/>
-      <c r="R25" s="9"/>
-      <c r="S25" s="9"/>
-      <c r="T25" s="9"/>
-      <c r="U25" s="9"/>
-      <c r="V25" s="9"/>
-      <c r="W25" s="9"/>
+      <c r="K25" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="L25" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="M25" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="N25" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="O25" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="P25" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="Q25" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="R25" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="S25" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="T25" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="U25" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="V25" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="W25" s="9" t="s">
+        <v>197</v>
+      </c>
     </row>
     <row r="30" ht="15" spans="10:23">
       <c r="J30" s="2" t="s">
-        <v>30</v>
+        <v>198</v>
       </c>
       <c r="K30" s="2"/>
       <c r="L30" s="2"/>
@@ -1987,10 +2561,10 @@
     </row>
     <row r="34" spans="10:23">
       <c r="J34" s="3" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="K34" s="3" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="L34" s="6">
         <v>88.12</v>
@@ -2031,10 +2605,10 @@
     </row>
     <row r="35" spans="10:23">
       <c r="J35" s="3" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="K35" s="3" t="s">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="L35" s="6">
         <v>90.27</v>
@@ -2076,7 +2650,7 @@
     <row r="36" spans="10:23">
       <c r="J36" s="3"/>
       <c r="K36" s="3" t="s">
-        <v>17</v>
+        <v>53</v>
       </c>
       <c r="L36" s="6">
         <v>91.43</v>
@@ -2117,10 +2691,10 @@
     </row>
     <row r="37" spans="10:23">
       <c r="J37" s="3" t="s">
-        <v>18</v>
+        <v>66</v>
       </c>
       <c r="K37" s="3" t="s">
-        <v>19</v>
+        <v>67</v>
       </c>
       <c r="L37" s="6">
         <v>88.62</v>
@@ -2162,7 +2736,7 @@
     <row r="38" spans="10:23">
       <c r="J38" s="3"/>
       <c r="K38" s="3" t="s">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="L38" s="6">
         <v>87.16</v>
@@ -2204,7 +2778,7 @@
     <row r="39" spans="10:23">
       <c r="J39" s="3"/>
       <c r="K39" s="3" t="s">
-        <v>21</v>
+        <v>93</v>
       </c>
       <c r="L39" s="6">
         <v>80.27</v>
@@ -2246,7 +2820,7 @@
     <row r="40" spans="10:23">
       <c r="J40" s="3"/>
       <c r="K40" s="3" t="s">
-        <v>22</v>
+        <v>106</v>
       </c>
       <c r="L40" s="6">
         <v>89.29</v>
@@ -2288,7 +2862,7 @@
     <row r="41" spans="10:23">
       <c r="J41" s="3"/>
       <c r="K41" s="3" t="s">
-        <v>23</v>
+        <v>119</v>
       </c>
       <c r="L41" s="6">
         <v>88.74</v>
@@ -2330,7 +2904,7 @@
     <row r="42" spans="10:23">
       <c r="J42" s="3"/>
       <c r="K42" s="3" t="s">
-        <v>24</v>
+        <v>132</v>
       </c>
       <c r="L42" s="6">
         <v>84.27</v>
@@ -2371,10 +2945,10 @@
     </row>
     <row r="43" spans="10:23">
       <c r="J43" s="3" t="s">
-        <v>25</v>
+        <v>145</v>
       </c>
       <c r="K43" s="3" t="s">
-        <v>26</v>
+        <v>146</v>
       </c>
       <c r="L43" s="6">
         <v>91.04</v>
@@ -2416,7 +2990,7 @@
     <row r="44" spans="10:23">
       <c r="J44" s="3"/>
       <c r="K44" s="3" t="s">
-        <v>27</v>
+        <v>159</v>
       </c>
       <c r="L44" s="6"/>
       <c r="M44" s="6"/>
@@ -2434,7 +3008,7 @@
     <row r="45" spans="10:23">
       <c r="J45" s="3"/>
       <c r="K45" s="3" t="s">
-        <v>28</v>
+        <v>172</v>
       </c>
       <c r="L45" s="6"/>
       <c r="M45" s="6"/>
@@ -2451,8 +3025,8 @@
     </row>
     <row r="46" spans="10:23">
       <c r="J46" s="3"/>
-      <c r="K46" s="7" t="s">
-        <v>29</v>
+      <c r="K46" s="8" t="s">
+        <v>185</v>
       </c>
       <c r="L46" s="10"/>
       <c r="M46" s="10"/>
@@ -2469,7 +3043,7 @@
     </row>
     <row r="51" ht="15" spans="10:23">
       <c r="J51" s="2" t="s">
-        <v>31</v>
+        <v>199</v>
       </c>
       <c r="K51" s="2"/>
       <c r="L51" s="2"/>
@@ -2603,10 +3177,10 @@
     </row>
     <row r="55" spans="10:23">
       <c r="J55" s="3" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="K55" s="3" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="L55" s="6">
         <v>87.91</v>
@@ -2647,10 +3221,10 @@
     </row>
     <row r="56" spans="10:23">
       <c r="J56" s="3" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="K56" s="3" t="s">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="L56" s="6">
         <v>91.64</v>
@@ -2692,7 +3266,7 @@
     <row r="57" spans="10:23">
       <c r="J57" s="3"/>
       <c r="K57" s="3" t="s">
-        <v>17</v>
+        <v>53</v>
       </c>
       <c r="L57" s="6">
         <v>88.75</v>
@@ -2733,10 +3307,10 @@
     </row>
     <row r="58" spans="10:23">
       <c r="J58" s="3" t="s">
-        <v>18</v>
+        <v>66</v>
       </c>
       <c r="K58" s="3" t="s">
-        <v>19</v>
+        <v>67</v>
       </c>
       <c r="L58" s="6">
         <v>87.88</v>
@@ -2778,7 +3352,7 @@
     <row r="59" spans="10:23">
       <c r="J59" s="3"/>
       <c r="K59" s="3" t="s">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="L59" s="6">
         <v>87.69</v>
@@ -2820,7 +3394,7 @@
     <row r="60" spans="10:23">
       <c r="J60" s="3"/>
       <c r="K60" s="3" t="s">
-        <v>21</v>
+        <v>93</v>
       </c>
       <c r="L60" s="6">
         <v>81.05</v>
@@ -2862,7 +3436,7 @@
     <row r="61" spans="10:23">
       <c r="J61" s="3"/>
       <c r="K61" s="3" t="s">
-        <v>22</v>
+        <v>106</v>
       </c>
       <c r="L61" s="6">
         <v>90.01</v>
@@ -2904,7 +3478,7 @@
     <row r="62" spans="10:23">
       <c r="J62" s="3"/>
       <c r="K62" s="3" t="s">
-        <v>23</v>
+        <v>119</v>
       </c>
       <c r="L62" s="6">
         <v>88.02</v>
@@ -2946,7 +3520,7 @@
     <row r="63" spans="10:23">
       <c r="J63" s="3"/>
       <c r="K63" s="3" t="s">
-        <v>24</v>
+        <v>132</v>
       </c>
       <c r="L63" s="6">
         <v>87.67</v>
@@ -2987,10 +3561,10 @@
     </row>
     <row r="64" spans="10:23">
       <c r="J64" s="3" t="s">
-        <v>25</v>
+        <v>145</v>
       </c>
       <c r="K64" s="3" t="s">
-        <v>26</v>
+        <v>146</v>
       </c>
       <c r="L64" s="6">
         <v>91.21</v>
@@ -3032,7 +3606,7 @@
     <row r="65" spans="10:23">
       <c r="J65" s="3"/>
       <c r="K65" s="3" t="s">
-        <v>27</v>
+        <v>159</v>
       </c>
       <c r="L65" s="6"/>
       <c r="M65" s="6"/>
@@ -3050,7 +3624,7 @@
     <row r="66" spans="10:23">
       <c r="J66" s="3"/>
       <c r="K66" s="3" t="s">
-        <v>28</v>
+        <v>172</v>
       </c>
       <c r="L66" s="6"/>
       <c r="M66" s="6"/>
@@ -3067,8 +3641,8 @@
     </row>
     <row r="67" spans="10:23">
       <c r="J67" s="3"/>
-      <c r="K67" s="7" t="s">
-        <v>29</v>
+      <c r="K67" s="8" t="s">
+        <v>185</v>
       </c>
       <c r="L67" s="10"/>
       <c r="M67" s="10"/>
@@ -3085,7 +3659,7 @@
     </row>
     <row r="71" ht="15" spans="10:23">
       <c r="J71" s="2" t="s">
-        <v>32</v>
+        <v>200</v>
       </c>
       <c r="K71" s="2"/>
       <c r="L71" s="2"/>
@@ -3219,10 +3793,10 @@
     </row>
     <row r="75" spans="10:23">
       <c r="J75" s="3" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="K75" s="3" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="L75" s="6"/>
       <c r="M75" s="6"/>
@@ -3239,10 +3813,10 @@
     </row>
     <row r="76" spans="10:23">
       <c r="J76" s="3" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="K76" s="3" t="s">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="L76" s="6"/>
       <c r="M76" s="6"/>
@@ -3260,7 +3834,7 @@
     <row r="77" spans="10:23">
       <c r="J77" s="3"/>
       <c r="K77" s="3" t="s">
-        <v>17</v>
+        <v>53</v>
       </c>
       <c r="L77" s="6"/>
       <c r="M77" s="6"/>
@@ -3277,10 +3851,10 @@
     </row>
     <row r="78" spans="10:23">
       <c r="J78" s="3" t="s">
-        <v>18</v>
+        <v>66</v>
       </c>
       <c r="K78" s="3" t="s">
-        <v>19</v>
+        <v>67</v>
       </c>
       <c r="L78" s="6"/>
       <c r="M78" s="6"/>
@@ -3298,7 +3872,7 @@
     <row r="79" spans="10:23">
       <c r="J79" s="3"/>
       <c r="K79" s="3" t="s">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="L79" s="6"/>
       <c r="M79" s="6"/>
@@ -3316,7 +3890,7 @@
     <row r="80" spans="10:23">
       <c r="J80" s="3"/>
       <c r="K80" s="3" t="s">
-        <v>21</v>
+        <v>93</v>
       </c>
       <c r="L80" s="6"/>
       <c r="M80" s="6"/>
@@ -3334,7 +3908,7 @@
     <row r="81" spans="10:23">
       <c r="J81" s="3"/>
       <c r="K81" s="3" t="s">
-        <v>22</v>
+        <v>106</v>
       </c>
       <c r="L81" s="6"/>
       <c r="M81" s="6"/>
@@ -3352,7 +3926,7 @@
     <row r="82" spans="10:23">
       <c r="J82" s="3"/>
       <c r="K82" s="3" t="s">
-        <v>23</v>
+        <v>119</v>
       </c>
       <c r="L82" s="6"/>
       <c r="M82" s="6"/>
@@ -3370,7 +3944,7 @@
     <row r="83" spans="10:23">
       <c r="J83" s="3"/>
       <c r="K83" s="3" t="s">
-        <v>24</v>
+        <v>132</v>
       </c>
       <c r="L83" s="6"/>
       <c r="M83" s="6"/>
@@ -3387,10 +3961,10 @@
     </row>
     <row r="84" spans="10:23">
       <c r="J84" s="3" t="s">
-        <v>25</v>
+        <v>145</v>
       </c>
       <c r="K84" s="3" t="s">
-        <v>26</v>
+        <v>146</v>
       </c>
       <c r="L84" s="6"/>
       <c r="M84" s="6"/>
@@ -3408,7 +3982,7 @@
     <row r="85" spans="10:23">
       <c r="J85" s="3"/>
       <c r="K85" s="3" t="s">
-        <v>27</v>
+        <v>159</v>
       </c>
       <c r="L85" s="6"/>
       <c r="M85" s="6"/>
@@ -3426,7 +4000,7 @@
     <row r="86" spans="10:23">
       <c r="J86" s="3"/>
       <c r="K86" s="3" t="s">
-        <v>28</v>
+        <v>172</v>
       </c>
       <c r="L86" s="6"/>
       <c r="M86" s="6"/>
@@ -3443,8 +4017,8 @@
     </row>
     <row r="87" spans="10:23">
       <c r="J87" s="3"/>
-      <c r="K87" s="7" t="s">
-        <v>29</v>
+      <c r="K87" s="8" t="s">
+        <v>185</v>
       </c>
       <c r="L87" s="10"/>
       <c r="M87" s="10"/>
@@ -3461,7 +4035,7 @@
     </row>
     <row r="91" ht="15" spans="11:23">
       <c r="K91" s="11" t="s">
-        <v>33</v>
+        <v>201</v>
       </c>
       <c r="L91" s="12"/>
       <c r="M91" s="12"/>
@@ -3507,7 +4081,7 @@
     </row>
     <row r="93" spans="11:23">
       <c r="K93" s="3" t="s">
-        <v>34</v>
+        <v>202</v>
       </c>
       <c r="L93" s="4" t="s">
         <v>9</v>
@@ -3548,7 +4122,7 @@
     </row>
     <row r="94" spans="11:23">
       <c r="K94" s="3" t="s">
-        <v>35</v>
+        <v>203</v>
       </c>
       <c r="L94" s="6"/>
       <c r="M94" s="6"/>
@@ -3565,7 +4139,7 @@
     </row>
     <row r="95" spans="11:23">
       <c r="K95" s="3" t="s">
-        <v>36</v>
+        <v>204</v>
       </c>
       <c r="L95" s="6"/>
       <c r="M95" s="6"/>
@@ -3582,7 +4156,7 @@
     </row>
     <row r="96" spans="11:23">
       <c r="K96" s="3" t="s">
-        <v>37</v>
+        <v>205</v>
       </c>
       <c r="L96" s="6"/>
       <c r="M96" s="6"/>
@@ -3599,7 +4173,7 @@
     </row>
     <row r="97" spans="11:23">
       <c r="K97" s="3" t="s">
-        <v>38</v>
+        <v>206</v>
       </c>
       <c r="L97" s="6"/>
       <c r="M97" s="6"/>
@@ -3616,7 +4190,7 @@
     </row>
     <row r="98" spans="11:23">
       <c r="K98" s="3" t="s">
-        <v>39</v>
+        <v>207</v>
       </c>
       <c r="L98" s="6"/>
       <c r="M98" s="6"/>
@@ -3633,7 +4207,7 @@
     </row>
     <row r="99" spans="11:23">
       <c r="K99" s="13" t="s">
-        <v>40</v>
+        <v>208</v>
       </c>
       <c r="L99" s="6"/>
       <c r="M99" s="6"/>
@@ -3650,7 +4224,7 @@
     </row>
     <row r="100" spans="11:23">
       <c r="K100" s="3" t="s">
-        <v>41</v>
+        <v>209</v>
       </c>
       <c r="L100" s="6"/>
       <c r="M100" s="6"/>
@@ -3667,7 +4241,7 @@
     </row>
     <row r="101" spans="11:23">
       <c r="K101" s="3" t="s">
-        <v>42</v>
+        <v>210</v>
       </c>
       <c r="L101" s="6"/>
       <c r="M101" s="6"/>
@@ -3684,7 +4258,7 @@
     </row>
     <row r="102" spans="11:23">
       <c r="K102" s="3" t="s">
-        <v>43</v>
+        <v>211</v>
       </c>
       <c r="L102" s="6"/>
       <c r="M102" s="6"/>
@@ -3701,7 +4275,7 @@
     </row>
     <row r="103" spans="11:23">
       <c r="K103" s="3" t="s">
-        <v>44</v>
+        <v>212</v>
       </c>
       <c r="L103" s="6"/>
       <c r="M103" s="6"/>
@@ -3718,7 +4292,7 @@
     </row>
     <row r="104" spans="11:23">
       <c r="K104" s="3" t="s">
-        <v>45</v>
+        <v>213</v>
       </c>
       <c r="L104" s="6"/>
       <c r="M104" s="6"/>
@@ -3735,7 +4309,7 @@
     </row>
     <row r="105" spans="11:23">
       <c r="K105" s="3" t="s">
-        <v>46</v>
+        <v>214</v>
       </c>
       <c r="L105" s="6"/>
       <c r="M105" s="6"/>
@@ -3752,7 +4326,7 @@
     </row>
     <row r="106" spans="11:23">
       <c r="K106" s="3" t="s">
-        <v>47</v>
+        <v>215</v>
       </c>
       <c r="L106" s="6"/>
       <c r="M106" s="6"/>
@@ -3769,7 +4343,7 @@
     </row>
     <row r="107" spans="11:23">
       <c r="K107" s="3" t="s">
-        <v>48</v>
+        <v>216</v>
       </c>
       <c r="L107" s="6"/>
       <c r="M107" s="6"/>
@@ -3786,7 +4360,7 @@
     </row>
     <row r="108" spans="11:23">
       <c r="K108" s="3" t="s">
-        <v>49</v>
+        <v>217</v>
       </c>
       <c r="L108" s="6"/>
       <c r="M108" s="6"/>
